--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ntrk3</t>
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H2">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I2">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J2">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N2">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O2">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P2">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q2">
-        <v>0.09430524964666667</v>
+        <v>0.004303487104555556</v>
       </c>
       <c r="R2">
-        <v>0.84874724682</v>
+        <v>0.03873138394099999</v>
       </c>
       <c r="S2">
-        <v>0.0007493476673751805</v>
+        <v>0.0002403218385951844</v>
       </c>
       <c r="T2">
-        <v>0.00119477946699707</v>
+        <v>0.0002805425174116062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H3">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I3">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J3">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P3">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q3">
-        <v>0.7687542700933334</v>
+        <v>0.07007181020377778</v>
       </c>
       <c r="R3">
-        <v>6.91878843084</v>
+        <v>0.630646291834</v>
       </c>
       <c r="S3">
-        <v>0.006108506379416711</v>
+        <v>0.00391305605262266</v>
       </c>
       <c r="T3">
-        <v>0.009739561906841306</v>
+        <v>0.004567951885657224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H4">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I4">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J4">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N4">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O4">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P4">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q4">
-        <v>0.2075034914333334</v>
+        <v>0.02252020282633334</v>
       </c>
       <c r="R4">
-        <v>1.8675314229</v>
+        <v>0.202681825437</v>
       </c>
       <c r="S4">
-        <v>0.001648818680405987</v>
+        <v>0.001257607242050707</v>
       </c>
       <c r="T4">
-        <v>0.002628919512154773</v>
+        <v>0.001468082566538097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H5">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I5">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J5">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N5">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O5">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P5">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q5">
-        <v>0.4475737999700001</v>
+        <v>0.0267250432635</v>
       </c>
       <c r="R5">
-        <v>2.685442799820001</v>
+        <v>0.160350259581</v>
       </c>
       <c r="S5">
-        <v>0.003556412651918788</v>
+        <v>0.001492420304181083</v>
       </c>
       <c r="T5">
-        <v>0.003780291398931054</v>
+        <v>0.001161462899414712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02354</v>
+        <v>0.002145666666666667</v>
       </c>
       <c r="H6">
-        <v>0.07062</v>
+        <v>0.006437</v>
       </c>
       <c r="I6">
-        <v>0.01363425747161943</v>
+        <v>0.00807320947388686</v>
       </c>
       <c r="J6">
-        <v>0.01984867005197698</v>
+        <v>0.008843624333499573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N6">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O6">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P6">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q6">
-        <v>0.1977316843333334</v>
+        <v>0.02094789476933333</v>
       </c>
       <c r="R6">
-        <v>1.779585159</v>
+        <v>0.188531052924</v>
       </c>
       <c r="S6">
-        <v>0.001571172092502765</v>
+        <v>0.001169804036437225</v>
       </c>
       <c r="T6">
-        <v>0.002505117767052783</v>
+        <v>0.001365584464477934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.106753</v>
       </c>
       <c r="I7">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J7">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N7">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O7">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P7">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q7">
-        <v>0.1425569005314445</v>
+        <v>0.07137022819211111</v>
       </c>
       <c r="R7">
-        <v>1.283012104783</v>
+        <v>0.6423320537289999</v>
       </c>
       <c r="S7">
-        <v>0.001132754340630171</v>
+        <v>0.003985564274592469</v>
       </c>
       <c r="T7">
-        <v>0.001806093067690997</v>
+        <v>0.00465259520914109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.106753</v>
       </c>
       <c r="I8">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J8">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P8">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q8">
         <v>1.162090407749556</v>
@@ -948,10 +948,10 @@
         <v>10.458813669746</v>
       </c>
       <c r="S8">
-        <v>0.009233947628460384</v>
+        <v>0.0648952109345389</v>
       </c>
       <c r="T8">
-        <v>0.01472284695894973</v>
+        <v>0.07575618574639824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.106753</v>
       </c>
       <c r="I9">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J9">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N9">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O9">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P9">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q9">
-        <v>0.3136734667372222</v>
+        <v>0.3734813130836667</v>
       </c>
       <c r="R9">
-        <v>2.823061200635</v>
+        <v>3.361331817753</v>
       </c>
       <c r="S9">
-        <v>0.002492443225564717</v>
+        <v>0.02085650860814652</v>
       </c>
       <c r="T9">
-        <v>0.003974016492226826</v>
+        <v>0.0243470899837877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.106753</v>
       </c>
       <c r="I10">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J10">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N10">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O10">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P10">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q10">
-        <v>0.6765766902888335</v>
+        <v>0.4432155574815</v>
       </c>
       <c r="R10">
-        <v>4.059460141733</v>
+        <v>2.659293344889</v>
       </c>
       <c r="S10">
-        <v>0.005376065134951663</v>
+        <v>0.02475071380025526</v>
       </c>
       <c r="T10">
-        <v>0.005714492321015107</v>
+        <v>0.0192620240641943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>0.106753</v>
       </c>
       <c r="I11">
-        <v>0.02061027878600664</v>
+        <v>0.1338883534202026</v>
       </c>
       <c r="J11">
-        <v>0.0300043199385259</v>
+        <v>0.1466651279282398</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N11">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O11">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P11">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q11">
-        <v>0.2989018762055556</v>
+        <v>0.3474057185506667</v>
       </c>
       <c r="R11">
-        <v>2.69011688585</v>
+        <v>3.126651466956</v>
       </c>
       <c r="S11">
-        <v>0.002375068456399712</v>
+        <v>0.01940035580266942</v>
       </c>
       <c r="T11">
-        <v>0.003786871098643241</v>
+        <v>0.02264723292471848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1166,10 +1166,10 @@
         <v>0.13719</v>
       </c>
       <c r="I12">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J12">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N12">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O12">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P12">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q12">
-        <v>0.1832021693433333</v>
+        <v>0.09171902996333332</v>
       </c>
       <c r="R12">
-        <v>1.64881952409</v>
+        <v>0.82547126967</v>
       </c>
       <c r="S12">
-        <v>0.001455720850852464</v>
+        <v>0.005121912853328157</v>
       </c>
       <c r="T12">
-        <v>0.002321039295912319</v>
+        <v>0.005979125052617408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1228,10 +1228,10 @@
         <v>0.13719</v>
       </c>
       <c r="I13">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J13">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>97.972082</v>
       </c>
       <c r="O13">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P13">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q13">
         <v>1.493421103286667</v>
@@ -1258,10 +1258,10 @@
         <v>13.44078992958</v>
       </c>
       <c r="S13">
-        <v>0.0118666948483741</v>
+        <v>0.08339788097860848</v>
       </c>
       <c r="T13">
-        <v>0.01892056779948398</v>
+        <v>0.09735549467039217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1290,10 +1290,10 @@
         <v>0.13719</v>
       </c>
       <c r="I14">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J14">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N14">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O14">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P14">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q14">
-        <v>0.4031068251166667</v>
+        <v>0.47996685191</v>
       </c>
       <c r="R14">
-        <v>3.62796142605</v>
+        <v>4.31970166719</v>
       </c>
       <c r="S14">
-        <v>0.003203078940312905</v>
+        <v>0.02680303519293717</v>
       </c>
       <c r="T14">
-        <v>0.005107072612185121</v>
+        <v>0.03128883754906968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1352,10 +1352,10 @@
         <v>0.13719</v>
       </c>
       <c r="I15">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J15">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N15">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O15">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P15">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q15">
-        <v>0.8694796037650001</v>
+        <v>0.569583452745</v>
       </c>
       <c r="R15">
-        <v>5.216877622590001</v>
+        <v>3.41750071647</v>
       </c>
       <c r="S15">
-        <v>0.00690886790876152</v>
+        <v>0.03180754101764839</v>
       </c>
       <c r="T15">
-        <v>0.007343786137345671</v>
+        <v>0.02475393741971482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1414,10 +1414,10 @@
         <v>0.13719</v>
       </c>
       <c r="I16">
-        <v>0.02648660128195228</v>
+        <v>0.172062079807758</v>
       </c>
       <c r="J16">
-        <v>0.03855903489706489</v>
+        <v>0.188481718551003</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N16">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O16">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P16">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q16">
-        <v>0.3841236161666667</v>
+        <v>0.44645668532</v>
       </c>
       <c r="R16">
-        <v>3.457112545500001</v>
+        <v>4.01811016788</v>
       </c>
       <c r="S16">
-        <v>0.003052238733651293</v>
+        <v>0.0249317097652358</v>
       </c>
       <c r="T16">
-        <v>0.004866569052137798</v>
+        <v>0.0291043238592089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H17">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I17">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J17">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N17">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O17">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P17">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q17">
-        <v>6.496722299989666</v>
+        <v>0.1393124417611667</v>
       </c>
       <c r="R17">
-        <v>38.98033379993799</v>
+        <v>0.8358746505670001</v>
       </c>
       <c r="S17">
-        <v>0.05162282820226488</v>
+        <v>0.00777969616959867</v>
       </c>
       <c r="T17">
-        <v>0.0548725225505619</v>
+        <v>0.00605447972289932</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H18">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I18">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J18">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>97.972082</v>
       </c>
       <c r="O18">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P18">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q18">
-        <v>52.95975598855933</v>
+        <v>2.268363943226334</v>
       </c>
       <c r="R18">
-        <v>317.758535931356</v>
+        <v>13.610183659358</v>
       </c>
       <c r="S18">
-        <v>0.4208171842339045</v>
+        <v>0.1266734116298635</v>
       </c>
       <c r="T18">
-        <v>0.4473079301479609</v>
+        <v>0.09858246201702901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H19">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I19">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J19">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N19">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O19">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P19">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q19">
-        <v>14.29498957026833</v>
+        <v>0.7290237819865002</v>
       </c>
       <c r="R19">
-        <v>85.76993742161</v>
+        <v>4.374142691919001</v>
       </c>
       <c r="S19">
-        <v>0.1135877072566737</v>
+        <v>0.04071124913588058</v>
       </c>
       <c r="T19">
-        <v>0.1207381355296415</v>
+        <v>0.03168316949835418</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H20">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I20">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J20">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N20">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O20">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P20">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q20">
-        <v>30.8335187919095</v>
+        <v>0.8651428348117501</v>
       </c>
       <c r="R20">
-        <v>123.334075167638</v>
+        <v>3.460571339247001</v>
       </c>
       <c r="S20">
-        <v>0.2450025366589213</v>
+        <v>0.04831261524853157</v>
       </c>
       <c r="T20">
-        <v>0.1736170822862394</v>
+        <v>0.02506591028799011</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.621679</v>
+        <v>0.06945950000000001</v>
       </c>
       <c r="H21">
-        <v>3.243358</v>
+        <v>0.138919</v>
       </c>
       <c r="I21">
-        <v>0.9392688624604216</v>
+        <v>0.2613458568206203</v>
       </c>
       <c r="J21">
-        <v>0.9115879751124322</v>
+        <v>0.1908571459974254</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N21">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O21">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P21">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q21">
-        <v>13.62180629218333</v>
+        <v>0.6781250411980001</v>
       </c>
       <c r="R21">
-        <v>81.7308377531</v>
+        <v>4.068750247188</v>
       </c>
       <c r="S21">
-        <v>0.1082386061086572</v>
+        <v>0.03786888463674604</v>
       </c>
       <c r="T21">
-        <v>0.1150523045980286</v>
+        <v>0.02947112447115272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.33857</v>
+      </c>
+      <c r="I22">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J22">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.005664333333333</v>
+      </c>
+      <c r="N22">
+        <v>6.016992999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.02976781902817159</v>
+      </c>
+      <c r="P22">
+        <v>0.03172257287647481</v>
+      </c>
+      <c r="Q22">
+        <v>0.2263525911122222</v>
+      </c>
+      <c r="R22">
+        <v>2.03717332001</v>
+      </c>
+      <c r="S22">
+        <v>0.01264032389205711</v>
+      </c>
+      <c r="T22">
+        <v>0.01475583037440539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.33857</v>
+      </c>
+      <c r="I23">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J23">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.65736066666667</v>
+      </c>
+      <c r="N23">
+        <v>97.972082</v>
+      </c>
+      <c r="O23">
+        <v>0.4846964599741412</v>
+      </c>
+      <c r="P23">
+        <v>0.5165248673390457</v>
+      </c>
+      <c r="Q23">
+        <v>3.685600866971111</v>
+      </c>
+      <c r="R23">
+        <v>33.17040780274</v>
+      </c>
+      <c r="S23">
+        <v>0.2058169003785077</v>
+      </c>
+      <c r="T23">
+        <v>0.240262773019569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.33857</v>
+      </c>
+      <c r="I24">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J24">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.495667</v>
+      </c>
+      <c r="N24">
+        <v>31.487001</v>
+      </c>
+      <c r="O24">
+        <v>0.1557753760903259</v>
+      </c>
+      <c r="P24">
+        <v>0.1660046278737794</v>
+      </c>
+      <c r="Q24">
+        <v>1.184505992063333</v>
+      </c>
+      <c r="R24">
+        <v>10.66055392857</v>
+      </c>
+      <c r="S24">
+        <v>0.06614697591131086</v>
+      </c>
+      <c r="T24">
+        <v>0.07721744827602973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.33857</v>
+      </c>
+      <c r="I25">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J25">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.4553565</v>
+      </c>
+      <c r="N25">
+        <v>24.910713</v>
+      </c>
+      <c r="O25">
+        <v>0.1848608423958749</v>
+      </c>
+      <c r="P25">
+        <v>0.1313333601264699</v>
+      </c>
+      <c r="Q25">
+        <v>1.405670016735</v>
+      </c>
+      <c r="R25">
+        <v>8.434020100410001</v>
+      </c>
+      <c r="S25">
+        <v>0.07849755202525853</v>
+      </c>
+      <c r="T25">
+        <v>0.06109002545515595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1128566666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.33857</v>
+      </c>
+      <c r="I26">
+        <v>0.4246305004775321</v>
+      </c>
+      <c r="J26">
+        <v>0.4651523831898322</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.762884</v>
+      </c>
+      <c r="N26">
+        <v>29.288652</v>
+      </c>
+      <c r="O26">
+        <v>0.1448995025114864</v>
+      </c>
+      <c r="P26">
+        <v>0.1544145717842301</v>
+      </c>
+      <c r="Q26">
+        <v>1.101806545293333</v>
+      </c>
+      <c r="R26">
+        <v>9.91625890764</v>
+      </c>
+      <c r="S26">
+        <v>0.06152874827039787</v>
+      </c>
+      <c r="T26">
+        <v>0.07182630606467204</v>
       </c>
     </row>
   </sheetData>
